--- a/999_Replication_Paper/02_Experiments/random_regulations_data.xlsx
+++ b/999_Replication_Paper/02_Experiments/random_regulations_data.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colliard\Desktop\Measuring Regulatory Complexity\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colliard\Desktop\RegulatoryComplexity_Replication\02_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3BADF4-4C77-4228-A82D-AE8CC57593CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FAB57D-56D6-4760-AE7B-8EB746FD6D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil4" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Word</t>
   </si>
@@ -39,11 +50,176 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Word Index</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>asset maturity</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>Capital Instrument</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>central bank</t>
+  </si>
+  <si>
+    <t>central government</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>denominated</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>Fixed Asset</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>guaranteed</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>is:</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>mortgages</t>
+  </si>
+  <si>
+    <t>multilateral development bank</t>
+  </si>
+  <si>
+    <t>national currency</t>
+  </si>
+  <si>
+    <t>occupied</t>
+  </si>
+  <si>
+    <t>OECD country</t>
+  </si>
+  <si>
+    <t>OECD State</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>public sector</t>
+  </si>
+  <si>
+    <t>public sector entities</t>
+  </si>
+  <si>
+    <t>public-sector entity</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,9 +697,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,167 +1055,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AU66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
       <c r="G1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>3</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>4</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>6</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>8</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>9</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>10</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>11</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>12</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>13</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>14</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>15</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>16</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>17</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>18</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>19</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>20</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>21</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>22</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>23</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>24</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>25</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>26</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>27</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>28</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>30</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>31</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>32</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>33</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>34</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>35</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>37</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>38</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>39</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1047,17 +1227,17 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -1065,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1083,25 +1263,25 @@
         <v>1</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>3</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1113,11 +1293,11 @@
         <v>1</v>
       </c>
       <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
         <v>3</v>
       </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
       <c r="AD2">
         <v>1</v>
       </c>
@@ -1131,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>2</v>
       </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
       <c r="AJ2">
         <v>1</v>
       </c>
@@ -1149,37 +1329,40 @@
         <v>1</v>
       </c>
       <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>5</v>
       </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
       <c r="AP2">
         <v>1</v>
       </c>
       <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
         <v>2</v>
       </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
       <c r="AS2">
         <v>1</v>
       </c>
       <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>A2+1</f>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1191,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1209,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1224,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1233,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1245,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1302,25 +1485,28 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" ref="A4:A66" si="0">A3+1</f>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B66" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1329,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1449,19 +1635,22 @@
         <v>1</v>
       </c>
       <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1473,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1485,20 +1674,20 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -1509,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1521,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1554,25 +1743,25 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1590,19 +1779,22 @@
         <v>0</v>
       </c>
       <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1611,34 +1803,34 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1647,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1668,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1680,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1689,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1698,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1710,16 +1902,16 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1731,19 +1923,22 @@
         <v>0</v>
       </c>
       <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1752,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1767,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1791,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1809,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1824,22 +2019,22 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -1848,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1863,28 +2058,31 @@
         <v>0</v>
       </c>
       <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>2</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1908,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1944,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1965,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1998,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2013,19 +2211,22 @@
         <v>0</v>
       </c>
       <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2040,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2061,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2079,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2094,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2118,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2154,19 +2355,22 @@
         <v>0</v>
       </c>
       <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2175,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2217,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2244,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2271,19 +2475,19 @@
         <v>0</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>3</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2295,19 +2499,22 @@
         <v>0</v>
       </c>
       <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2319,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2337,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2370,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2433,22 +2640,25 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2466,28 +2676,28 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2496,31 +2706,31 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>1</v>
@@ -2535,31 +2745,31 @@
         <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>2</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2577,17 +2787,20 @@
         <v>0</v>
       </c>
       <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -2613,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2637,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2658,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2682,19 +2895,19 @@
         <v>0</v>
       </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>3</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2703,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -2718,28 +2931,31 @@
         <v>0</v>
       </c>
       <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2859,17 +3075,20 @@
         <v>1</v>
       </c>
       <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -2889,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2937,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2967,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3000,25 +3219,28 @@
         <v>0</v>
       </c>
       <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3039,11 +3261,11 @@
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -3078,19 +3300,19 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3141,17 +3363,20 @@
         <v>0</v>
       </c>
       <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -3246,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3282,19 +3507,22 @@
         <v>0</v>
       </c>
       <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3306,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3318,17 +3546,17 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
         <v>0</v>
       </c>
@@ -3348,31 +3576,31 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>2</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -3387,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -3423,19 +3651,22 @@
         <v>0</v>
       </c>
       <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3444,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3564,19 +3795,22 @@
         <v>1</v>
       </c>
       <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3588,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3600,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3630,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3669,28 +3903,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3705,17 +3939,20 @@
         <v>0</v>
       </c>
       <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -3726,32 +3963,32 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
         <v>0</v>
       </c>
@@ -3759,70 +3996,70 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>2</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>3</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
         <v>2</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>3</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
       <c r="AF21">
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>5</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3</v>
-      </c>
-      <c r="AJ21">
-        <v>2</v>
       </c>
       <c r="AK21">
         <v>2</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -3834,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -3846,19 +4083,22 @@
         <v>0</v>
       </c>
       <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3867,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -3879,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3891,19 +4131,19 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3912,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -3927,53 +4167,53 @@
         <v>1</v>
       </c>
       <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>2</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
         <v>2</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <v>2</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>2</v>
       </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>2</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
         <v>0</v>
       </c>
@@ -3987,19 +4227,22 @@
         <v>0</v>
       </c>
       <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4014,22 +4257,22 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4038,31 +4281,31 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4077,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4086,10 +4329,10 @@
         <v>1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>1</v>
@@ -4101,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4113,34 +4356,37 @@
         <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
         <v>0</v>
       </c>
       <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4158,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4188,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -4269,19 +4515,22 @@
         <v>0</v>
       </c>
       <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4293,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4335,11 +4584,11 @@
         <v>0</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>2</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
         <v>0</v>
       </c>
@@ -4359,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4374,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -4410,19 +4659,22 @@
         <v>0</v>
       </c>
       <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4431,61 +4683,61 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>2</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>3</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -4494,16 +4746,16 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>2</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26">
         <v>1</v>
@@ -4512,16 +4764,16 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26">
         <v>2</v>
@@ -4530,16 +4782,16 @@
         <v>2</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -4551,19 +4803,22 @@
         <v>0</v>
       </c>
       <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4581,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4608,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4629,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -4644,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -4665,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -4677,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -4692,19 +4947,22 @@
         <v>0</v>
       </c>
       <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4806,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -4833,19 +5091,22 @@
         <v>0</v>
       </c>
       <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4902,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -4974,19 +5235,22 @@
         <v>0</v>
       </c>
       <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4998,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5046,16 +5310,16 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -5064,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -5076,56 +5340,59 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30">
         <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -5136,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>5</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -5148,61 +5415,61 @@
         <v>6</v>
       </c>
       <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O31">
         <v>5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
         <v>5</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>6</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3</v>
-      </c>
-      <c r="U31">
-        <v>5</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
         <v>4</v>
-      </c>
-      <c r="X31">
-        <v>5</v>
       </c>
       <c r="Y31">
         <v>5</v>
       </c>
       <c r="Z31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
         <v>6</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>3</v>
-      </c>
-      <c r="AB31">
-        <v>6</v>
       </c>
       <c r="AC31">
         <v>6</v>
@@ -5211,19 +5478,19 @@
         <v>6</v>
       </c>
       <c r="AE31">
+        <v>6</v>
+      </c>
+      <c r="AF31">
         <v>5</v>
-      </c>
-      <c r="AF31">
-        <v>3</v>
       </c>
       <c r="AG31">
         <v>3</v>
       </c>
       <c r="AH31">
+        <v>3</v>
+      </c>
+      <c r="AI31">
         <v>6</v>
-      </c>
-      <c r="AI31">
-        <v>5</v>
       </c>
       <c r="AJ31">
         <v>5</v>
@@ -5238,35 +5505,38 @@
         <v>5</v>
       </c>
       <c r="AN31">
+        <v>5</v>
+      </c>
+      <c r="AO31">
         <v>6</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>5</v>
       </c>
-      <c r="AP31">
+      <c r="AQ31">
         <v>2</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>5</v>
-      </c>
-      <c r="AR31">
-        <v>3</v>
       </c>
       <c r="AS31">
         <v>3</v>
       </c>
       <c r="AT31">
+        <v>3</v>
+      </c>
+      <c r="AU31">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -5286,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5397,19 +5667,22 @@
         <v>0</v>
       </c>
       <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5421,28 +5694,28 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -5457,16 +5730,16 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -5475,16 +5748,16 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -5493,20 +5766,20 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
         <v>2</v>
       </c>
-      <c r="AI33">
-        <v>1</v>
-      </c>
       <c r="AJ33">
         <v>1</v>
       </c>
@@ -5517,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -5538,17 +5811,20 @@
         <v>0</v>
       </c>
       <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
       <c r="C34">
         <v>0</v>
       </c>
@@ -5568,19 +5844,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5595,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -5616,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -5631,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -5652,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -5664,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -5679,19 +5955,22 @@
         <v>0</v>
       </c>
       <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5700,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5715,16 +5994,16 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -5736,16 +6015,16 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -5757,16 +6036,16 @@
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -5775,16 +6054,16 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -5793,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
@@ -5814,23 +6093,26 @@
         <v>1</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
       <c r="C36">
         <v>0</v>
       </c>
@@ -5907,17 +6189,17 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>1</v>
       </c>
       <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
         <v>2</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
       <c r="AF36">
         <v>0</v>
       </c>
@@ -5925,10 +6207,10 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -5940,16 +6222,16 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -5961,17 +6243,20 @@
         <v>0</v>
       </c>
       <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
       <c r="C37">
         <v>0</v>
       </c>
@@ -5979,13 +6264,13 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>5</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -5994,61 +6279,61 @@
         <v>6</v>
       </c>
       <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
         <v>3</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
-      </c>
-      <c r="L37">
-        <v>6</v>
       </c>
       <c r="M37">
         <v>6</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>5</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
         <v>5</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>6</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3</v>
-      </c>
-      <c r="U37">
-        <v>5</v>
       </c>
       <c r="V37">
         <v>5</v>
       </c>
       <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
         <v>4</v>
-      </c>
-      <c r="X37">
-        <v>5</v>
       </c>
       <c r="Y37">
         <v>5</v>
       </c>
       <c r="Z37">
+        <v>5</v>
+      </c>
+      <c r="AA37">
         <v>6</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>3</v>
-      </c>
-      <c r="AB37">
-        <v>6</v>
       </c>
       <c r="AC37">
         <v>6</v>
@@ -6057,19 +6342,19 @@
         <v>6</v>
       </c>
       <c r="AE37">
+        <v>6</v>
+      </c>
+      <c r="AF37">
         <v>5</v>
-      </c>
-      <c r="AF37">
-        <v>3</v>
       </c>
       <c r="AG37">
         <v>3</v>
       </c>
       <c r="AH37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
         <v>6</v>
-      </c>
-      <c r="AI37">
-        <v>5</v>
       </c>
       <c r="AJ37">
         <v>5</v>
@@ -6084,37 +6369,40 @@
         <v>5</v>
       </c>
       <c r="AN37">
+        <v>5</v>
+      </c>
+      <c r="AO37">
         <v>6</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>5</v>
       </c>
-      <c r="AP37">
+      <c r="AQ37">
         <v>2</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>5</v>
-      </c>
-      <c r="AR37">
-        <v>3</v>
       </c>
       <c r="AS37">
         <v>3</v>
       </c>
       <c r="AT37">
+        <v>3</v>
+      </c>
+      <c r="AU37">
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6123,31 +6411,31 @@
         <v>0</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
         <v>2</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -6156,25 +6444,25 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>2</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>1</v>
@@ -6186,49 +6474,49 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>2</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK38">
         <v>1</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -6243,19 +6531,22 @@
         <v>0</v>
       </c>
       <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6336,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6384,22 +6675,25 @@
         <v>0</v>
       </c>
       <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6408,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6423,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -6450,31 +6744,31 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
         <v>2</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -6492,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6525,19 +6819,22 @@
         <v>0</v>
       </c>
       <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6549,22 +6846,22 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -6576,31 +6873,31 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
         <v>2</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
       <c r="U41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>2</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -6609,13 +6906,13 @@
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -6630,58 +6927,61 @@
         <v>0</v>
       </c>
       <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
         <v>2</v>
       </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
       <c r="AJ41">
         <v>0</v>
       </c>
       <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
         <v>2</v>
       </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
       <c r="AM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41">
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41">
         <v>0</v>
       </c>
       <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6702,17 +7002,17 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>2</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
       <c r="O42">
         <v>0</v>
       </c>
@@ -6771,19 +7071,19 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -6807,19 +7107,22 @@
         <v>0</v>
       </c>
       <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6828,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -6888,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -6903,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -6912,55 +7215,58 @@
         <v>0</v>
       </c>
       <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
         <v>2</v>
       </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
         <v>0</v>
       </c>
       <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6969,19 +7275,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -7002,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -7020,19 +7326,19 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -7047,22 +7353,22 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
         <v>2</v>
       </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
       <c r="AJ44">
         <v>1</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -7089,19 +7395,22 @@
         <v>0</v>
       </c>
       <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7119,19 +7428,19 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -7146,10 +7455,10 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -7167,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -7182,13 +7491,13 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45">
         <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -7203,10 +7512,10 @@
         <v>0</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -7215,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -7230,19 +7539,22 @@
         <v>0</v>
       </c>
       <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7317,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -7326,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -7335,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -7350,16 +7662,16 @@
         <v>0</v>
       </c>
       <c r="AM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -7371,19 +7683,22 @@
         <v>0</v>
       </c>
       <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7401,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -7512,19 +7827,22 @@
         <v>0</v>
       </c>
       <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7542,22 +7860,22 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -7590,25 +7908,25 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -7620,19 +7938,19 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -7653,17 +7971,20 @@
         <v>0</v>
       </c>
       <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
       <c r="C49">
         <v>0</v>
       </c>
@@ -7722,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -7794,19 +8115,22 @@
         <v>0</v>
       </c>
       <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7818,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -7830,17 +8154,17 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
         <v>2</v>
       </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
       <c r="O50">
         <v>0</v>
       </c>
@@ -7860,31 +8184,31 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
         <v>2</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -7899,19 +8223,19 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <v>1</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -7935,301 +8259,310 @@
         <v>0</v>
       </c>
       <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>6</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>4</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
       </c>
       <c r="O51">
         <v>2</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>2</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>7</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>2</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
       <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <v>2</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
       <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <v>3</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
         <v>3</v>
       </c>
-      <c r="AC51">
-        <v>1</v>
-      </c>
       <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
         <v>3</v>
       </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
         <v>6</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>2</v>
       </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
       <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
         <v>6</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <v>3</v>
       </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
       <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>3</v>
       </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
       <c r="AP51">
         <v>0</v>
       </c>
       <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
         <v>2</v>
       </c>
-      <c r="AR51">
-        <v>0</v>
-      </c>
       <c r="AS51">
         <v>0</v>
       </c>
       <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>4</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>7</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
         <v>3</v>
-      </c>
-      <c r="M52">
-        <v>4</v>
       </c>
       <c r="N52">
         <v>4</v>
       </c>
       <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
         <v>3</v>
       </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
       <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
         <v>2</v>
-      </c>
-      <c r="R52">
-        <v>4</v>
       </c>
       <c r="S52">
         <v>4</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
         <v>6</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>5</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>2</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>4</v>
       </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
       <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
         <v>6</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>2</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>6</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>3</v>
-      </c>
-      <c r="AD52">
-        <v>2</v>
       </c>
       <c r="AE52">
         <v>2</v>
       </c>
       <c r="AF52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG52">
         <v>1</v>
       </c>
       <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
         <v>4</v>
-      </c>
-      <c r="AI52">
-        <v>2</v>
       </c>
       <c r="AJ52">
         <v>2</v>
       </c>
       <c r="AK52">
+        <v>2</v>
+      </c>
+      <c r="AL52">
         <v>7</v>
       </c>
-      <c r="AL52">
+      <c r="AM52">
         <v>4</v>
       </c>
-      <c r="AM52">
+      <c r="AN52">
         <v>3</v>
       </c>
-      <c r="AN52">
+      <c r="AO52">
         <v>5</v>
       </c>
-      <c r="AO52">
+      <c r="AP52">
         <v>2</v>
       </c>
-      <c r="AP52">
-        <v>1</v>
-      </c>
       <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
         <v>4</v>
       </c>
-      <c r="AR52">
+      <c r="AS52">
         <v>2</v>
       </c>
-      <c r="AS52">
-        <v>1</v>
-      </c>
       <c r="AT52">
+        <v>1</v>
+      </c>
+      <c r="AU52">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8307,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -8322,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="AH53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53">
         <v>0</v>
@@ -8337,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="AM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -8358,19 +8691,22 @@
         <v>0</v>
       </c>
       <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8445,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -8454,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -8463,10 +8799,10 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -8478,16 +8814,16 @@
         <v>0</v>
       </c>
       <c r="AM54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -8499,19 +8835,22 @@
         <v>0</v>
       </c>
       <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -8520,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -8577,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -8589,13 +8928,13 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>1</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -8640,19 +8979,22 @@
         <v>0</v>
       </c>
       <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8709,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -8781,19 +9123,22 @@
         <v>0</v>
       </c>
       <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8841,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -8877,10 +9222,10 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -8889,13 +9234,13 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57">
         <v>0</v>
@@ -8922,19 +9267,22 @@
         <v>0</v>
       </c>
       <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8943,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -8955,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -8964,13 +9312,13 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -8979,25 +9327,25 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>1</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -9012,10 +9360,10 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58">
         <v>1</v>
@@ -9024,19 +9372,19 @@
         <v>1</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58">
         <v>0</v>
       </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
@@ -9048,13 +9396,13 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP58">
         <v>0</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -9063,19 +9411,22 @@
         <v>1</v>
       </c>
       <c r="AT58">
+        <v>1</v>
+      </c>
+      <c r="AU58">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -9150,16 +9501,16 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -9189,10 +9540,10 @@
         <v>0</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -9204,17 +9555,20 @@
         <v>0</v>
       </c>
       <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
       <c r="C60">
         <v>0</v>
       </c>
@@ -9228,10 +9582,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -9240,17 +9594,17 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
         <v>2</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
       <c r="O60">
         <v>0</v>
       </c>
@@ -9270,31 +9624,31 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
         <v>2</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -9309,19 +9663,19 @@
         <v>0</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
         <v>1</v>
       </c>
       <c r="AJ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60">
         <v>0</v>
@@ -9345,17 +9699,20 @@
         <v>0</v>
       </c>
       <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
       <c r="C61">
         <v>0</v>
       </c>
@@ -9366,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -9378,82 +9735,82 @@
         <v>6</v>
       </c>
       <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
         <v>3</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>5</v>
-      </c>
-      <c r="L61">
-        <v>6</v>
       </c>
       <c r="M61">
         <v>6</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O61">
         <v>5</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q61">
         <v>3</v>
       </c>
       <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
         <v>5</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>6</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>3</v>
-      </c>
-      <c r="U61">
-        <v>5</v>
       </c>
       <c r="V61">
         <v>5</v>
       </c>
       <c r="W61">
+        <v>5</v>
+      </c>
+      <c r="X61">
         <v>4</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>5</v>
-      </c>
-      <c r="Y61">
-        <v>6</v>
       </c>
       <c r="Z61">
         <v>6</v>
       </c>
       <c r="AA61">
+        <v>6</v>
+      </c>
+      <c r="AB61">
         <v>3</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>7</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>8</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>9</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>5</v>
-      </c>
-      <c r="AF61">
-        <v>3</v>
       </c>
       <c r="AG61">
         <v>3</v>
       </c>
       <c r="AH61">
+        <v>3</v>
+      </c>
+      <c r="AI61">
         <v>7</v>
-      </c>
-      <c r="AI61">
-        <v>5</v>
       </c>
       <c r="AJ61">
         <v>5</v>
@@ -9465,7 +9822,7 @@
         <v>5</v>
       </c>
       <c r="AM61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN61">
         <v>6</v>
@@ -9474,31 +9831,34 @@
         <v>6</v>
       </c>
       <c r="AP61">
+        <v>6</v>
+      </c>
+      <c r="AQ61">
         <v>2</v>
       </c>
-      <c r="AQ61">
+      <c r="AR61">
         <v>5</v>
-      </c>
-      <c r="AR61">
-        <v>3</v>
       </c>
       <c r="AS61">
         <v>3</v>
       </c>
       <c r="AT61">
+        <v>3</v>
+      </c>
+      <c r="AU61">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9507,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>5</v>
-      </c>
-      <c r="G62">
-        <v>6</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -9519,61 +9879,61 @@
         <v>6</v>
       </c>
       <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
         <v>3</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5</v>
-      </c>
-      <c r="L62">
-        <v>6</v>
       </c>
       <c r="M62">
         <v>6</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O62">
         <v>5</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62">
         <v>3</v>
       </c>
       <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
         <v>5</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>6</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>3</v>
-      </c>
-      <c r="U62">
-        <v>5</v>
       </c>
       <c r="V62">
         <v>5</v>
       </c>
       <c r="W62">
+        <v>5</v>
+      </c>
+      <c r="X62">
         <v>4</v>
-      </c>
-      <c r="X62">
-        <v>5</v>
       </c>
       <c r="Y62">
         <v>5</v>
       </c>
       <c r="Z62">
+        <v>5</v>
+      </c>
+      <c r="AA62">
         <v>6</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>3</v>
-      </c>
-      <c r="AB62">
-        <v>6</v>
       </c>
       <c r="AC62">
         <v>6</v>
@@ -9582,19 +9942,19 @@
         <v>6</v>
       </c>
       <c r="AE62">
+        <v>6</v>
+      </c>
+      <c r="AF62">
         <v>5</v>
-      </c>
-      <c r="AF62">
-        <v>3</v>
       </c>
       <c r="AG62">
         <v>3</v>
       </c>
       <c r="AH62">
+        <v>3</v>
+      </c>
+      <c r="AI62">
         <v>6</v>
-      </c>
-      <c r="AI62">
-        <v>5</v>
       </c>
       <c r="AJ62">
         <v>5</v>
@@ -9609,43 +9969,46 @@
         <v>5</v>
       </c>
       <c r="AN62">
+        <v>5</v>
+      </c>
+      <c r="AO62">
         <v>6</v>
       </c>
-      <c r="AO62">
+      <c r="AP62">
         <v>5</v>
       </c>
-      <c r="AP62">
+      <c r="AQ62">
         <v>2</v>
       </c>
-      <c r="AQ62">
+      <c r="AR62">
         <v>5</v>
-      </c>
-      <c r="AR62">
-        <v>3</v>
       </c>
       <c r="AS62">
         <v>3</v>
       </c>
       <c r="AT62">
+        <v>3</v>
+      </c>
+      <c r="AU62">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9714,17 +10077,17 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63">
         <v>1</v>
       </c>
       <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
         <v>2</v>
       </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
       <c r="AF63">
         <v>0</v>
       </c>
@@ -9732,10 +10095,10 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -9747,16 +10110,16 @@
         <v>0</v>
       </c>
       <c r="AM63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>0</v>
@@ -9768,19 +10131,22 @@
         <v>0</v>
       </c>
       <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9873,10 +10239,10 @@
         <v>0</v>
       </c>
       <c r="AH64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -9909,17 +10275,20 @@
         <v>0</v>
       </c>
       <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
       <c r="C65">
         <v>0</v>
       </c>
@@ -9933,10 +10302,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -9945,17 +10314,17 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
         <v>2</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
       <c r="O65">
         <v>0</v>
       </c>
@@ -9975,31 +10344,31 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
         <v>2</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10014,19 +10383,19 @@
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65">
         <v>1</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65">
         <v>0</v>
@@ -10050,19 +10419,22 @@
         <v>0</v>
       </c>
       <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -10074,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -10086,17 +10458,17 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <v>2</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
       <c r="O66">
         <v>0</v>
       </c>
@@ -10116,31 +10488,31 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
         <v>2</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10155,19 +10527,19 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66">
         <v>1</v>
       </c>
       <c r="AJ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -10191,6 +10563,9 @@
         <v>0</v>
       </c>
       <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
         <v>13</v>
       </c>
     </row>
